--- a/src/original_data/vacations/vacations_2020.xlsx
+++ b/src/original_data/vacations/vacations_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t xml:space="preserve">Bundesland</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Winterferien2021</t>
   </si>
   <si>
+    <t xml:space="preserve">Osterferien2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baden-Württemberg</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">23.12.2020 - 09.01.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">06.04.2021 - 10.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bayern</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t xml:space="preserve">15.02.2021 - 19.02.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">29.03.2021 - 10.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Berlin</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
     <t xml:space="preserve">25.06.2020 - 08.08.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">29.03.2021 - 09.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bremen</t>
   </si>
   <si>
@@ -130,6 +142,9 @@
     <t xml:space="preserve">01.02.2021 - 02.02.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">27.03.2021 - 10.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hamburg</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t xml:space="preserve">29.01.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">01.03.2021 - 12.03.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hessen</t>
   </si>
   <si>
@@ -166,6 +184,9 @@
     <t xml:space="preserve">21.12.2020 - 09.01.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">06.04.2021 - 16.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mecklenburg-Vorpommern</t>
   </si>
   <si>
@@ -187,6 +208,9 @@
     <t xml:space="preserve">06.02.2021 - 19.02.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">29.03.2021 - 07.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niedersachsen</t>
   </si>
   <si>
@@ -214,6 +238,9 @@
     <t xml:space="preserve">09.04.2020 - 17.04.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">29.03.2021 - 06.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saarland</t>
   </si>
   <si>
@@ -244,6 +271,9 @@
     <t xml:space="preserve">08.02.2021 - 20.02.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">02.04.2021 - 10.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sachsen-Anhalt</t>
   </si>
   <si>
@@ -265,6 +295,9 @@
     <t xml:space="preserve">08.02.2021 - 13.02.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">29.03.2021 - 03.04.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schleswig-Holstein</t>
   </si>
   <si>
@@ -275,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">21.12.2020 - 06.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.04.2021 - 16.04.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Thüringen</t>
@@ -389,17 +425,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="22" sqref="B3:B5 B9:B10 B12:B15 B17 C2:C4 C6:C17 D7 D15 E2:E3 E5 E7:F9 E11:E13 E16:F17 F2 F14 G7 G11:G13 G15:G16 H3:H6 H10 H13:H15 H17 H22"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="32.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,382 +464,433 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/original_data/vacations/vacations_2020.xlsx
+++ b/src/original_data/vacations/vacations_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t xml:space="preserve">Bundesland</t>
   </si>
@@ -106,16 +106,19 @@
     <t xml:space="preserve">12.10.2020 - 24.10.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">21.12.2020 – 10.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.02.2021 - 06.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.06.2020 - 08.08.2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">21.12.2020 - 02.01.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02.2021 - 06.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.06.2020 - 08.08.2020</t>
   </si>
   <si>
     <t xml:space="preserve">29.03.2021 - 09.04.2021</t>
@@ -428,10 +431,10 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="32.66"/>
@@ -566,169 +569,169 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
@@ -736,140 +739,140 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -878,16 +881,16 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>21</v>

--- a/src/original_data/vacations/vacations_2020.xlsx
+++ b/src/original_data/vacations/vacations_2020.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">12.10.2020 - 24.10.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">21.12.2020 – 10.01.2021</t>
+    <t xml:space="preserve">21.12.2020 - 10.01.2021</t>
   </si>
   <si>
     <t xml:space="preserve">01.02.2021 - 06.02.2021</t>
@@ -430,11 +430,11 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="32.66"/>

--- a/src/original_data/vacations/vacations_2020.xlsx
+++ b/src/original_data/vacations/vacations_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t xml:space="preserve">Bundesland</t>
   </si>
@@ -106,16 +106,19 @@
     <t xml:space="preserve">12.10.2020 - 24.10.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">21.12.2020 - 10.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.02.2021 - 06.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.06.2020 - 08.08.2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">21.12.2020 - 02.01.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02.2021 - 06.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.06.2020 - 08.08.2020</t>
   </si>
   <si>
     <t xml:space="preserve">29.03.2021 - 09.04.2021</t>
@@ -427,11 +430,11 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="32.66"/>
@@ -566,169 +569,169 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
@@ -736,140 +739,140 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -878,16 +881,16 @@
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>21</v>

--- a/src/original_data/vacations/vacations_2020.xlsx
+++ b/src/original_data/vacations/vacations_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
   <si>
     <t xml:space="preserve">Bundesland</t>
   </si>
@@ -49,6 +49,12 @@
     <t xml:space="preserve">Osterferien2021</t>
   </si>
   <si>
+    <t xml:space="preserve">Pfingstferien2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommerferien2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baden-Württemberg</t>
   </si>
   <si>
@@ -70,6 +76,12 @@
     <t xml:space="preserve">06.04.2021 - 10.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">25.05.2021 - 05.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.07.2021 - 11.09.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bayern</t>
   </si>
   <si>
@@ -88,6 +100,12 @@
     <t xml:space="preserve">29.03.2021 - 10.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">25.05.2021 - 04.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.07.2021 - 13.09.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Berlin</t>
   </si>
   <si>
@@ -112,6 +130,12 @@
     <t xml:space="preserve">01.02.2021 - 06.02.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">14.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.06.2021 - 06.08.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brandenburg</t>
   </si>
   <si>
@@ -124,6 +148,9 @@
     <t xml:space="preserve">29.03.2021 - 09.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">24.06.2021 - 07.08.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bremen</t>
   </si>
   <si>
@@ -148,6 +175,9 @@
     <t xml:space="preserve">27.03.2021 - 10.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">22.07.2021 - 01.09.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hamburg</t>
   </si>
   <si>
@@ -175,6 +205,12 @@
     <t xml:space="preserve">01.03.2021 - 12.03.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">10.05.2021 - 14.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.06.2021 - 04.08.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hessen</t>
   </si>
   <si>
@@ -190,6 +226,9 @@
     <t xml:space="preserve">06.04.2021 - 16.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">19.07.2021 - 27.08.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mecklenburg-Vorpommern</t>
   </si>
   <si>
@@ -214,6 +253,12 @@
     <t xml:space="preserve">29.03.2021 - 07.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">21.05.2021 - 25.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.06.2021 - 31.07.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niedersachsen</t>
   </si>
   <si>
@@ -232,6 +277,12 @@
     <t xml:space="preserve">23.12.2020 - 06.01.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">25.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.07.2021 - 17.08.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rheinland-Pfalz</t>
   </si>
   <si>
@@ -244,6 +295,9 @@
     <t xml:space="preserve">29.03.2021 - 06.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">25.05.2021 - 02.06.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saarland</t>
   </si>
   <si>
@@ -253,6 +307,9 @@
     <t xml:space="preserve">14.04.2020 - 24.04.2020</t>
   </si>
   <si>
+    <t xml:space="preserve">25.05.2021 - 28.05.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sachsen</t>
   </si>
   <si>
@@ -271,10 +328,10 @@
     <t xml:space="preserve">23.12.2020 - 02.01.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">08.02.2021 - 20.02.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.04.2021 - 10.04.2021</t>
+    <t xml:space="preserve">31.01.2021 - 06.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.07.2021 - 03.09.2021</t>
   </si>
   <si>
     <t xml:space="preserve">Sachsen-Anhalt</t>
@@ -301,6 +358,9 @@
     <t xml:space="preserve">29.03.2021 - 03.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">10.05.2021 - 22.05.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schleswig-Holstein</t>
   </si>
   <si>
@@ -316,6 +376,9 @@
     <t xml:space="preserve">01.04.2021 - 16.04.2021</t>
   </si>
   <si>
+    <t xml:space="preserve">14.05.2021 - 15.05.2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thüringen</t>
   </si>
   <si>
@@ -323,6 +386,12 @@
   </si>
   <si>
     <t xml:space="preserve">17.10.2020 - 30.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.01.2021 - 30.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.07.2021 - 04.09.2021</t>
   </si>
 </sst>
 </file>
@@ -332,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,6 +423,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,8 +475,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,40 +509,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="32.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="32.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
@@ -470,430 +554,526 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="J17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>21</v>
+      <c r="K17" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/original_data/vacations/vacations_2020.xlsx
+++ b/src/original_data/vacations/vacations_2020.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">29.07.2021 - 11.09.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayern</t>
+    <t xml:space="preserve">Bavaria</t>
   </si>
   <si>
     <t xml:space="preserve">24.02.2020 - 28.02.2020</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">21.06.2021 - 31.07.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Niedersachsen</t>
+    <t xml:space="preserve">Lower Saxony</t>
   </si>
   <si>
     <t xml:space="preserve">30.03.2020 - 14.04.2020</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">12.10.2020 - 23.10.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Nordrhein-Westfalen</t>
+    <t xml:space="preserve">North Rhine-Westphalia</t>
   </si>
   <si>
     <t xml:space="preserve">29.06.2020 - 11.08.2020</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">05.07.2021 - 17.08.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Rheinland-Pfalz</t>
+    <t xml:space="preserve">Rhineland-Palatinate</t>
   </si>
   <si>
     <t xml:space="preserve">17.02.2020 - 21.02.2020</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">25.05.2021 - 28.05.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Sachsen</t>
+    <t xml:space="preserve">Saxony</t>
   </si>
   <si>
     <t xml:space="preserve">10.02.2020 - 22.02.2020</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">26.07.2021 - 03.09.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Sachsen-Anhalt</t>
+    <t xml:space="preserve">Saxony-Anhalt</t>
   </si>
   <si>
     <t xml:space="preserve">10.02.2020 - 14.02.2020</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">14.05.2021 - 15.05.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Thüringen</t>
+    <t xml:space="preserve">Thuringia</t>
   </si>
   <si>
     <t xml:space="preserve">20.07.2020 - 29.08.2020</t>
@@ -514,10 +514,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topRight" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="32.66"/>

--- a/src/original_data/vacations/vacations_2020.xlsx
+++ b/src/original_data/vacations/vacations_2020.xlsx
@@ -202,7 +202,7 @@
     <t xml:space="preserve">29.01.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">01.03.2021 - 12.03.2021</t>
+    <t xml:space="preserve">20.02.2021 - 12.03.2021</t>
   </si>
   <si>
     <t xml:space="preserve">10.05.2021 - 14.05.2021</t>
@@ -514,10 +514,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topRight" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="32.66"/>

--- a/src/original_data/vacations/vacations_2020.xlsx
+++ b/src/original_data/vacations/vacations_2020.xlsx
@@ -199,10 +199,10 @@
     <t xml:space="preserve">21.12.2020 - 04.01.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">29.01.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.02.2021 - 12.03.2021</t>
+    <t xml:space="preserve">01.03.2021 - 12.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.04.2021 - 05.04.2021</t>
   </si>
   <si>
     <t xml:space="preserve">10.05.2021 - 14.05.2021</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">08.02.2021 - 13.02.2021</t>
   </si>
   <si>
-    <t xml:space="preserve">29.03.2021 - 03.04.2021</t>
+    <t xml:space="preserve">29.03.2021 - 05.04.2021</t>
   </si>
   <si>
     <t xml:space="preserve">10.05.2021 - 22.05.2021</t>
@@ -433,12 +433,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -475,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,6 +495,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,12 +522,12 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topRight" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="32.66"/>
@@ -746,10 +756,10 @@
       <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="0" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="0" t="s">
